--- a/大学信息技术/项目3/实训3/工资表.xlsx
+++ b/大学信息技术/项目3/实训3/工资表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="6月" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月'!$A$3:$K$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月'!$A$1:$N$22</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'4月'!$M$3:$N$5</definedName>
     <definedName name="经理实发">'4月'!$K$4,'4月'!$K$12,'4月'!$K$15,'4月'!$K$19</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'4月'!$A$33</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="72">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,22 @@
   </si>
   <si>
     <t>行政部门员工2021年4月工资表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;23000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;15000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,10 +708,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -710,7 +726,7 @@
     <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>67</v>
       </c>
@@ -725,7 +741,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -740,7 +756,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -774,8 +790,14 @@
       <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -795,27 +817,33 @@
         <v>3000</v>
       </c>
       <c r="G4" s="4">
-        <f>(E4+F4)*$K$2</f>
+        <f t="shared" ref="G4:G22" si="0">(E4+F4)*$K$2</f>
         <v>11475</v>
       </c>
       <c r="H4" s="4">
-        <f>SUM(E4:G4)</f>
+        <f t="shared" ref="H4:H22" si="1">SUM(E4:G4)</f>
         <v>24975</v>
       </c>
       <c r="I4" s="4">
-        <f>H4*18%</f>
+        <f t="shared" ref="I4:I22" si="2">H4*18%</f>
         <v>4495.5</v>
       </c>
       <c r="J4" s="4">
-        <f>IF((H4-I4-5000)&gt;=25000,(H4-I4-5000)*25%-2660,IF((H4-I4-5000)&gt;=12000,(H4-I4-5000)*20%-1410,IF((H4-I4-5000)&gt;=3000,(H4-I4-5000)*10%-210,(H4-I4-5000)*3%-0)))</f>
+        <f t="shared" ref="J4:J22" si="3">IF((H4-I4-5000)&gt;=25000,(H4-I4-5000)*25%-2660,IF((H4-I4-5000)&gt;=12000,(H4-I4-5000)*20%-1410,IF((H4-I4-5000)&gt;=3000,(H4-I4-5000)*10%-210,(H4-I4-5000)*3%-0)))</f>
         <v>1685.9</v>
       </c>
       <c r="K4" s="4">
-        <f>H4-I4-J4</f>
+        <f t="shared" ref="K4:K22" si="4">H4-I4-J4</f>
         <v>18793.599999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -826,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4">
         <v>8000</v>
@@ -835,27 +863,33 @@
         <v>2000</v>
       </c>
       <c r="G5" s="4">
-        <f>(E5+F5)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>8500</v>
       </c>
       <c r="H5" s="4">
-        <f>SUM(E5:G5)</f>
+        <f t="shared" si="1"/>
         <v>18500</v>
       </c>
       <c r="I5" s="4">
-        <f>H5*18%</f>
+        <f t="shared" si="2"/>
         <v>3330</v>
       </c>
       <c r="J5" s="4">
-        <f>IF((H5-I5-5000)&gt;=25000,(H5-I5-5000)*25%-2660,IF((H5-I5-5000)&gt;=12000,(H5-I5-5000)*20%-1410,IF((H5-I5-5000)&gt;=3000,(H5-I5-5000)*10%-210,(H5-I5-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>807</v>
       </c>
       <c r="K5" s="4">
-        <f>H5-I5-J5</f>
+        <f t="shared" si="4"/>
         <v>14363</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -875,27 +909,27 @@
         <v>4000</v>
       </c>
       <c r="G6" s="4">
-        <f>(E6+F6)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>14025</v>
       </c>
       <c r="H6" s="4">
-        <f>SUM(E6:G6)</f>
+        <f t="shared" si="1"/>
         <v>30525</v>
       </c>
       <c r="I6" s="4">
-        <f>H6*18%</f>
+        <f t="shared" si="2"/>
         <v>5494.5</v>
       </c>
       <c r="J6" s="4">
-        <f>IF((H6-I6-5000)&gt;=25000,(H6-I6-5000)*25%-2660,IF((H6-I6-5000)&gt;=12000,(H6-I6-5000)*20%-1410,IF((H6-I6-5000)&gt;=3000,(H6-I6-5000)*10%-210,(H6-I6-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>2596.1000000000004</v>
       </c>
       <c r="K6" s="4">
-        <f>H6-I6-J6</f>
+        <f t="shared" si="4"/>
         <v>22434.400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -915,27 +949,27 @@
         <v>1800</v>
       </c>
       <c r="G7" s="4">
-        <f>(E7+F7)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>7650</v>
       </c>
       <c r="H7" s="4">
-        <f>SUM(E7:G7)</f>
+        <f t="shared" si="1"/>
         <v>16650</v>
       </c>
       <c r="I7" s="4">
-        <f>H7*18%</f>
+        <f t="shared" si="2"/>
         <v>2997</v>
       </c>
       <c r="J7" s="4">
-        <f>IF((H7-I7-5000)&gt;=25000,(H7-I7-5000)*25%-2660,IF((H7-I7-5000)&gt;=12000,(H7-I7-5000)*20%-1410,IF((H7-I7-5000)&gt;=3000,(H7-I7-5000)*10%-210,(H7-I7-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>655.30000000000007</v>
       </c>
       <c r="K7" s="4">
-        <f>H7-I7-J7</f>
+        <f t="shared" si="4"/>
         <v>12997.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -955,27 +989,27 @@
         <v>5000</v>
       </c>
       <c r="G8" s="4">
-        <f>(E8+F8)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>21250</v>
       </c>
       <c r="H8" s="4">
-        <f>SUM(E8:G8)</f>
+        <f t="shared" si="1"/>
         <v>46250</v>
       </c>
       <c r="I8" s="4">
-        <f>H8*18%</f>
+        <f t="shared" si="2"/>
         <v>8325</v>
       </c>
       <c r="J8" s="4">
-        <f>IF((H8-I8-5000)&gt;=25000,(H8-I8-5000)*25%-2660,IF((H8-I8-5000)&gt;=12000,(H8-I8-5000)*20%-1410,IF((H8-I8-5000)&gt;=3000,(H8-I8-5000)*10%-210,(H8-I8-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>5571.25</v>
       </c>
       <c r="K8" s="4">
-        <f>H8-I8-J8</f>
+        <f t="shared" si="4"/>
         <v>32353.75</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -995,27 +1029,27 @@
         <v>3000</v>
       </c>
       <c r="G9" s="4">
-        <f>(E9+F9)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>10710</v>
       </c>
       <c r="H9" s="4">
-        <f>SUM(E9:G9)</f>
+        <f t="shared" si="1"/>
         <v>23310</v>
       </c>
       <c r="I9" s="4">
-        <f>H9*18%</f>
+        <f t="shared" si="2"/>
         <v>4195.8</v>
       </c>
       <c r="J9" s="4">
-        <f>IF((H9-I9-5000)&gt;=25000,(H9-I9-5000)*25%-2660,IF((H9-I9-5000)&gt;=12000,(H9-I9-5000)*20%-1410,IF((H9-I9-5000)&gt;=3000,(H9-I9-5000)*10%-210,(H9-I9-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>1412.8400000000001</v>
       </c>
       <c r="K9" s="4">
-        <f>H9-I9-J9</f>
+        <f t="shared" si="4"/>
         <v>17701.36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1035,27 +1069,27 @@
         <v>2000</v>
       </c>
       <c r="G10" s="4">
-        <f>(E10+F10)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>8075</v>
       </c>
       <c r="H10" s="4">
-        <f>SUM(E10:G10)</f>
+        <f t="shared" si="1"/>
         <v>17575</v>
       </c>
       <c r="I10" s="4">
-        <f>H10*18%</f>
+        <f t="shared" si="2"/>
         <v>3163.5</v>
       </c>
       <c r="J10" s="4">
-        <f>IF((H10-I10-5000)&gt;=25000,(H10-I10-5000)*25%-2660,IF((H10-I10-5000)&gt;=12000,(H10-I10-5000)*20%-1410,IF((H10-I10-5000)&gt;=3000,(H10-I10-5000)*10%-210,(H10-I10-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>731.15000000000009</v>
       </c>
       <c r="K10" s="4">
-        <f>H10-I10-J10</f>
+        <f t="shared" si="4"/>
         <v>13680.35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1075,27 +1109,27 @@
         <v>2000</v>
       </c>
       <c r="G11" s="4">
-        <f>(E11+F11)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>6800</v>
       </c>
       <c r="H11" s="4">
-        <f>SUM(E11:G11)</f>
+        <f t="shared" si="1"/>
         <v>14800</v>
       </c>
       <c r="I11" s="4">
-        <f>H11*18%</f>
+        <f t="shared" si="2"/>
         <v>2664</v>
       </c>
       <c r="J11" s="4">
-        <f>IF((H11-I11-5000)&gt;=25000,(H11-I11-5000)*25%-2660,IF((H11-I11-5000)&gt;=12000,(H11-I11-5000)*20%-1410,IF((H11-I11-5000)&gt;=3000,(H11-I11-5000)*10%-210,(H11-I11-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>503.6</v>
       </c>
       <c r="K11" s="4">
-        <f>H11-I11-J11</f>
+        <f t="shared" si="4"/>
         <v>11632.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1115,27 +1149,27 @@
         <v>4000</v>
       </c>
       <c r="G12" s="4">
-        <f>(E12+F12)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>12750</v>
       </c>
       <c r="H12" s="4">
-        <f>SUM(E12:G12)</f>
+        <f t="shared" si="1"/>
         <v>27750</v>
       </c>
       <c r="I12" s="4">
-        <f>H12*18%</f>
+        <f t="shared" si="2"/>
         <v>4995</v>
       </c>
       <c r="J12" s="4">
-        <f>IF((H12-I12-5000)&gt;=25000,(H12-I12-5000)*25%-2660,IF((H12-I12-5000)&gt;=12000,(H12-I12-5000)*20%-1410,IF((H12-I12-5000)&gt;=3000,(H12-I12-5000)*10%-210,(H12-I12-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>2141</v>
       </c>
       <c r="K12" s="4">
-        <f>H12-I12-J12</f>
+        <f t="shared" si="4"/>
         <v>20614</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -1155,27 +1189,27 @@
         <v>1800</v>
       </c>
       <c r="G13" s="4">
-        <f>(E13+F13)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>6205</v>
       </c>
       <c r="H13" s="4">
-        <f>SUM(E13:G13)</f>
+        <f t="shared" si="1"/>
         <v>13505</v>
       </c>
       <c r="I13" s="4">
-        <f>H13*18%</f>
+        <f t="shared" si="2"/>
         <v>2430.9</v>
       </c>
       <c r="J13" s="4">
-        <f>IF((H13-I13-5000)&gt;=25000,(H13-I13-5000)*25%-2660,IF((H13-I13-5000)&gt;=12000,(H13-I13-5000)*20%-1410,IF((H13-I13-5000)&gt;=3000,(H13-I13-5000)*10%-210,(H13-I13-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>397.41000000000008</v>
       </c>
       <c r="K13" s="4">
-        <f>H13-I13-J13</f>
+        <f t="shared" si="4"/>
         <v>10676.69</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -1195,27 +1229,27 @@
         <v>2000</v>
       </c>
       <c r="G14" s="4">
-        <f>(E14+F14)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>5950</v>
       </c>
       <c r="H14" s="4">
-        <f>SUM(E14:G14)</f>
+        <f t="shared" si="1"/>
         <v>12950</v>
       </c>
       <c r="I14" s="4">
-        <f>H14*18%</f>
+        <f t="shared" si="2"/>
         <v>2331</v>
       </c>
       <c r="J14" s="4">
-        <f>IF((H14-I14-5000)&gt;=25000,(H14-I14-5000)*25%-2660,IF((H14-I14-5000)&gt;=12000,(H14-I14-5000)*20%-1410,IF((H14-I14-5000)&gt;=3000,(H14-I14-5000)*10%-210,(H14-I14-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>351.9</v>
       </c>
       <c r="K14" s="4">
-        <f>H14-I14-J14</f>
+        <f t="shared" si="4"/>
         <v>10267.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1235,27 +1269,27 @@
         <v>4000</v>
       </c>
       <c r="G15" s="4">
-        <f>(E15+F15)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>14875</v>
       </c>
       <c r="H15" s="4">
-        <f>SUM(E15:G15)</f>
+        <f t="shared" si="1"/>
         <v>32375</v>
       </c>
       <c r="I15" s="4">
-        <f>H15*18%</f>
+        <f t="shared" si="2"/>
         <v>5827.5</v>
       </c>
       <c r="J15" s="4">
-        <f>IF((H15-I15-5000)&gt;=25000,(H15-I15-5000)*25%-2660,IF((H15-I15-5000)&gt;=12000,(H15-I15-5000)*20%-1410,IF((H15-I15-5000)&gt;=3000,(H15-I15-5000)*10%-210,(H15-I15-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>2899.5</v>
       </c>
       <c r="K15" s="4">
-        <f>H15-I15-J15</f>
+        <f t="shared" si="4"/>
         <v>23648</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1275,23 +1309,23 @@
         <v>2500</v>
       </c>
       <c r="G16" s="4">
-        <f>(E16+F16)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>9350</v>
       </c>
       <c r="H16" s="4">
-        <f>SUM(E16:G16)</f>
+        <f t="shared" si="1"/>
         <v>20350</v>
       </c>
       <c r="I16" s="4">
-        <f>H16*18%</f>
+        <f t="shared" si="2"/>
         <v>3663</v>
       </c>
       <c r="J16" s="4">
-        <f>IF((H16-I16-5000)&gt;=25000,(H16-I16-5000)*25%-2660,IF((H16-I16-5000)&gt;=12000,(H16-I16-5000)*20%-1410,IF((H16-I16-5000)&gt;=3000,(H16-I16-5000)*10%-210,(H16-I16-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>958.7</v>
       </c>
       <c r="K16" s="4">
-        <f>H16-I16-J16</f>
+        <f t="shared" si="4"/>
         <v>15728.3</v>
       </c>
     </row>
@@ -1315,23 +1349,23 @@
         <v>1500</v>
       </c>
       <c r="G17" s="4">
-        <f>(E17+F17)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>5100</v>
       </c>
       <c r="H17" s="4">
-        <f>SUM(E17:G17)</f>
+        <f t="shared" si="1"/>
         <v>11100</v>
       </c>
       <c r="I17" s="4">
-        <f>H17*18%</f>
+        <f t="shared" si="2"/>
         <v>1998</v>
       </c>
       <c r="J17" s="4">
-        <f>IF((H17-I17-5000)&gt;=25000,(H17-I17-5000)*25%-2660,IF((H17-I17-5000)&gt;=12000,(H17-I17-5000)*20%-1410,IF((H17-I17-5000)&gt;=3000,(H17-I17-5000)*10%-210,(H17-I17-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>200.20000000000005</v>
       </c>
       <c r="K17" s="4">
-        <f>H17-I17-J17</f>
+        <f t="shared" si="4"/>
         <v>8901.7999999999993</v>
       </c>
     </row>
@@ -1355,23 +1389,23 @@
         <v>4000</v>
       </c>
       <c r="G18" s="4">
-        <f>(E18+F18)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>16150</v>
       </c>
       <c r="H18" s="4">
-        <f>SUM(E18:G18)</f>
+        <f t="shared" si="1"/>
         <v>35150</v>
       </c>
       <c r="I18" s="4">
-        <f>H18*18%</f>
+        <f t="shared" si="2"/>
         <v>6327</v>
       </c>
       <c r="J18" s="4">
-        <f>IF((H18-I18-5000)&gt;=25000,(H18-I18-5000)*25%-2660,IF((H18-I18-5000)&gt;=12000,(H18-I18-5000)*20%-1410,IF((H18-I18-5000)&gt;=3000,(H18-I18-5000)*10%-210,(H18-I18-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>3354.6000000000004</v>
       </c>
       <c r="K18" s="4">
-        <f>H18-I18-J18</f>
+        <f t="shared" si="4"/>
         <v>25468.400000000001</v>
       </c>
     </row>
@@ -1395,23 +1429,23 @@
         <v>3000</v>
       </c>
       <c r="G19" s="4">
-        <f>(E19+F19)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>9775</v>
       </c>
       <c r="H19" s="4">
-        <f>SUM(E19:G19)</f>
+        <f t="shared" si="1"/>
         <v>21275</v>
       </c>
       <c r="I19" s="4">
-        <f>H19*18%</f>
+        <f t="shared" si="2"/>
         <v>3829.5</v>
       </c>
       <c r="J19" s="4">
-        <f>IF((H19-I19-5000)&gt;=25000,(H19-I19-5000)*25%-2660,IF((H19-I19-5000)&gt;=12000,(H19-I19-5000)*20%-1410,IF((H19-I19-5000)&gt;=3000,(H19-I19-5000)*10%-210,(H19-I19-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>1079.1000000000004</v>
       </c>
       <c r="K19" s="4">
-        <f>H19-I19-J19</f>
+        <f t="shared" si="4"/>
         <v>16366.4</v>
       </c>
     </row>
@@ -1435,23 +1469,23 @@
         <v>2000</v>
       </c>
       <c r="G20" s="4">
-        <f>(E20+F20)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>7225</v>
       </c>
       <c r="H20" s="4">
-        <f>SUM(E20:G20)</f>
+        <f t="shared" si="1"/>
         <v>15725</v>
       </c>
       <c r="I20" s="4">
-        <f>H20*18%</f>
+        <f t="shared" si="2"/>
         <v>2830.5</v>
       </c>
       <c r="J20" s="4">
-        <f>IF((H20-I20-5000)&gt;=25000,(H20-I20-5000)*25%-2660,IF((H20-I20-5000)&gt;=12000,(H20-I20-5000)*20%-1410,IF((H20-I20-5000)&gt;=3000,(H20-I20-5000)*10%-210,(H20-I20-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>579.45000000000005</v>
       </c>
       <c r="K20" s="4">
-        <f>H20-I20-J20</f>
+        <f t="shared" si="4"/>
         <v>12315.05</v>
       </c>
     </row>
@@ -1475,23 +1509,23 @@
         <v>2000</v>
       </c>
       <c r="G21" s="4">
-        <f>(E21+F21)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>6375</v>
       </c>
       <c r="H21" s="4">
-        <f>SUM(E21:G21)</f>
+        <f t="shared" si="1"/>
         <v>13875</v>
       </c>
       <c r="I21" s="4">
-        <f>H21*18%</f>
+        <f t="shared" si="2"/>
         <v>2497.5</v>
       </c>
       <c r="J21" s="4">
-        <f>IF((H21-I21-5000)&gt;=25000,(H21-I21-5000)*25%-2660,IF((H21-I21-5000)&gt;=12000,(H21-I21-5000)*20%-1410,IF((H21-I21-5000)&gt;=3000,(H21-I21-5000)*10%-210,(H21-I21-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>427.75</v>
       </c>
       <c r="K21" s="4">
-        <f>H21-I21-J21</f>
+        <f t="shared" si="4"/>
         <v>10949.75</v>
       </c>
     </row>
@@ -1515,23 +1549,23 @@
         <v>1800</v>
       </c>
       <c r="G22" s="4">
-        <f>(E22+F22)*$K$2</f>
+        <f t="shared" si="0"/>
         <v>5780</v>
       </c>
       <c r="H22" s="4">
-        <f>SUM(E22:G22)</f>
+        <f t="shared" si="1"/>
         <v>12580</v>
       </c>
       <c r="I22" s="4">
-        <f>H22*18%</f>
+        <f t="shared" si="2"/>
         <v>2264.4</v>
       </c>
       <c r="J22" s="4">
-        <f>IF((H22-I22-5000)&gt;=25000,(H22-I22-5000)*25%-2660,IF((H22-I22-5000)&gt;=12000,(H22-I22-5000)*20%-1410,IF((H22-I22-5000)&gt;=3000,(H22-I22-5000)*10%-210,(H22-I22-5000)*3%-0)))</f>
+        <f t="shared" si="3"/>
         <v>321.56000000000006</v>
       </c>
       <c r="K22" s="4">
-        <f>H22-I22-J22</f>
+        <f t="shared" si="4"/>
         <v>9994.0400000000009</v>
       </c>
     </row>
@@ -1887,142 +1921,142 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E35" s="4">
-        <v>13500</v>
+        <v>9600</v>
       </c>
       <c r="F35" s="4">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G35" s="4">
-        <v>14875</v>
+        <v>10710</v>
       </c>
       <c r="H35" s="4">
-        <v>32375</v>
+        <v>23310</v>
       </c>
       <c r="I35" s="4">
-        <v>5827.5</v>
+        <v>4195.8</v>
       </c>
       <c r="J35" s="4">
-        <v>2899.5</v>
+        <v>1412.8400000000001</v>
       </c>
       <c r="K35" s="4">
-        <v>23648</v>
+        <v>17701.36</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E36" s="4">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="F36" s="4">
         <v>4000</v>
       </c>
       <c r="G36" s="4">
-        <v>16150</v>
+        <v>14875</v>
       </c>
       <c r="H36" s="4">
-        <v>35150</v>
+        <v>32375</v>
       </c>
       <c r="I36" s="4">
-        <v>6327</v>
+        <v>5827.5</v>
       </c>
       <c r="J36" s="4">
-        <v>3354.6000000000004</v>
+        <v>2899.5</v>
       </c>
       <c r="K36" s="4">
-        <v>25468.400000000001</v>
+        <v>23648</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="4">
-        <v>9600</v>
+        <v>8500</v>
       </c>
       <c r="F37" s="4">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="G37" s="4">
-        <v>10710</v>
+        <v>9350</v>
       </c>
       <c r="H37" s="4">
-        <v>23310</v>
+        <v>20350</v>
       </c>
       <c r="I37" s="4">
-        <v>4195.8</v>
+        <v>3663</v>
       </c>
       <c r="J37" s="4">
-        <v>1412.8400000000001</v>
+        <v>958.7</v>
       </c>
       <c r="K37" s="4">
-        <v>17701.36</v>
+        <v>15728.3</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="4">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="F38" s="4">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="G38" s="4">
-        <v>9350</v>
+        <v>16150</v>
       </c>
       <c r="H38" s="4">
-        <v>20350</v>
+        <v>35150</v>
       </c>
       <c r="I38" s="4">
-        <v>3663</v>
+        <v>6327</v>
       </c>
       <c r="J38" s="4">
-        <v>958.7</v>
+        <v>3354.6000000000004</v>
       </c>
       <c r="K38" s="4">
-        <v>15728.3</v>
+        <v>25468.400000000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">

--- a/大学信息技术/项目3/实训3/工资表.xlsx
+++ b/大学信息技术/项目3/实训3/工资表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="750" windowWidth="19155" windowHeight="11250"/>
+    <workbookView xWindow="3210" yWindow="750" windowWidth="19155" windowHeight="11250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="79">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,27 @@
   <si>
     <t>&gt;15000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部 汇总</t>
+  </si>
+  <si>
+    <t>厂办 汇总</t>
+  </si>
+  <si>
+    <t>人事部 汇总</t>
+  </si>
+  <si>
+    <t>生产部 汇总</t>
+  </si>
+  <si>
+    <t>销售部 汇总</t>
+  </si>
+  <si>
+    <t>研发部 汇总</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
 </sst>
 </file>
@@ -318,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -339,6 +360,13 @@
       <sz val="20"/>
       <color theme="0"/>
       <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -370,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +428,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,7 +744,7 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -2151,13 +2185,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.375" bestFit="1" customWidth="1"/>
@@ -2234,487 +2268,421 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="F4" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G22" si="0">(E4+F4)*$K$2</f>
-        <v>21750</v>
+        <f>(E4+F4)*$K$2</f>
+        <v>8700</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H22" si="1">SUM(E4:G4)</f>
-        <v>46750</v>
+        <f>SUM(E4:G4)</f>
+        <v>18700</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I22" si="2">H4*18%</f>
-        <v>8415</v>
+        <f>H4*18%</f>
+        <v>3366</v>
       </c>
       <c r="J4" s="4">
         <f>IF((H4-I4-5000)&gt;=25000,(H4-I4-5000)*25%-2660,IF((H4-I4-5000)&gt;=12000,(H4-I4-5000)*20%-1410,IF((H4-I4-5000)&gt;=3000,(H4-I4-5000)*10%-210,(H4-I4-5000)*3%-0)))</f>
+        <v>823.40000000000009</v>
+      </c>
+      <c r="K4" s="4">
+        <f>H4-I4-J4</f>
+        <v>14510.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="4">
+        <f>(E5+F5)*$K$2</f>
+        <v>11745</v>
+      </c>
+      <c r="H5" s="4">
+        <f>SUM(E5:G5)</f>
+        <v>25245</v>
+      </c>
+      <c r="I5" s="4">
+        <f>H5*18%</f>
+        <v>4544.0999999999995</v>
+      </c>
+      <c r="J5" s="4">
+        <f>IF((H5-I5-5000)&gt;=25000,(H5-I5-5000)*25%-2660,IF((H5-I5-5000)&gt;=12000,(H5-I5-5000)*20%-1410,IF((H5-I5-5000)&gt;=3000,(H5-I5-5000)*10%-210,(H5-I5-5000)*3%-0)))</f>
+        <v>1730.1800000000003</v>
+      </c>
+      <c r="K5" s="4">
+        <f>H5-I5-J5</f>
+        <v>18970.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <f>SUBTOTAL(9,K4:K5)</f>
+        <v>33481.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12500</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G7" s="4">
+        <f>(E7+F7)*$K$2</f>
+        <v>14355</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM(E7:G7)</f>
+        <v>30855</v>
+      </c>
+      <c r="I7" s="4">
+        <f>H7*18%</f>
+        <v>5553.9</v>
+      </c>
+      <c r="J7" s="4">
+        <f>IF((H7-I7-5000)&gt;=25000,(H7-I7-5000)*25%-2660,IF((H7-I7-5000)&gt;=12000,(H7-I7-5000)*20%-1410,IF((H7-I7-5000)&gt;=3000,(H7-I7-5000)*10%-210,(H7-I7-5000)*3%-0)))</f>
+        <v>2650.22</v>
+      </c>
+      <c r="K7" s="4">
+        <f>H7-I7-J7</f>
+        <v>22650.879999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1800</v>
+      </c>
+      <c r="G8" s="4">
+        <f>(E8+F8)*$K$2</f>
+        <v>7830</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM(E8:G8)</f>
+        <v>16830</v>
+      </c>
+      <c r="I8" s="4">
+        <f>H8*18%</f>
+        <v>3029.4</v>
+      </c>
+      <c r="J8" s="4">
+        <f>IF((H8-I8-5000)&gt;=25000,(H8-I8-5000)*25%-2660,IF((H8-I8-5000)&gt;=12000,(H8-I8-5000)*20%-1410,IF((H8-I8-5000)&gt;=3000,(H8-I8-5000)*10%-210,(H8-I8-5000)*3%-0)))</f>
+        <v>670.06000000000006</v>
+      </c>
+      <c r="K8" s="4">
+        <f>H8-I8-J8</f>
+        <v>13130.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <f>SUBTOTAL(9,K7:K8)</f>
+        <v>35781.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="4">
+        <f>(E10+F10)*$K$2</f>
+        <v>21750</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM(E10:G10)</f>
+        <v>46750</v>
+      </c>
+      <c r="I10" s="4">
+        <f>H10*18%</f>
+        <v>8415</v>
+      </c>
+      <c r="J10" s="4">
+        <f>IF((H10-I10-5000)&gt;=25000,(H10-I10-5000)*25%-2660,IF((H10-I10-5000)&gt;=12000,(H10-I10-5000)*20%-1410,IF((H10-I10-5000)&gt;=3000,(H10-I10-5000)*10%-210,(H10-I10-5000)*3%-0)))</f>
         <v>5673.75</v>
       </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K22" si="3">H4-I4-J4</f>
+      <c r="K10" s="4">
+        <f>H10-I10-J10</f>
         <v>32661.25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4">
-        <v>15000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4000</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>16530</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>35530</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>6395.4</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" ref="J5:J22" si="4">IF((H5-I5-5000)&gt;=25000,(H5-I5-5000)*25%-2660,IF((H5-I5-5000)&gt;=12000,(H5-I5-5000)*20%-1410,IF((H5-I5-5000)&gt;=3000,(H5-I5-5000)*10%-210,(H5-I5-5000)*3%-0)))</f>
-        <v>3416.92</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="3"/>
-        <v>25717.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6500</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="0"/>
-        <v>7395</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
-        <v>15895</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>2861.1</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="4"/>
-        <v>593.39</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="3"/>
-        <v>12440.51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
-        <v>8500</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2500</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>9570</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>20570</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>3702.6</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="4"/>
-        <v>976.74000000000024</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="3"/>
-        <v>15890.660000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    <row r="11" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4">
-        <v>6000</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="0"/>
-        <v>6960</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
-        <v>14960</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>2692.7999999999997</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="4"/>
-        <v>516.72000000000014</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="3"/>
-        <v>11750.480000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4">
-        <v>12500</v>
-      </c>
-      <c r="F9" s="4">
-        <v>4000</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>14355</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>30855</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>5553.9</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="4"/>
-        <v>2650.22</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="3"/>
-        <v>22650.879999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5500</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>6525</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>14025</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>2524.5</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="4"/>
-        <v>440.05000000000007</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="3"/>
-        <v>11060.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="F11" s="4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>10005</v>
+        <f>(E11+F11)*$K$2</f>
+        <v>6960</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>21505</v>
+        <f>SUM(E11:G11)</f>
+        <v>14960</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>3870.8999999999996</v>
+        <f>H11*18%</f>
+        <v>2692.7999999999997</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="4"/>
-        <v>1116.8199999999997</v>
+        <f>IF((H11-I11-5000)&gt;=25000,(H11-I11-5000)*25%-2660,IF((H11-I11-5000)&gt;=12000,(H11-I11-5000)*20%-1410,IF((H11-I11-5000)&gt;=3000,(H11-I11-5000)*10%-210,(H11-I11-5000)*3%-0)))</f>
+        <v>516.72000000000014</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="3"/>
-        <v>16517.28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <f>H11-I11-J11</f>
+        <v>11750.480000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="F12" s="4">
         <v>2000</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="0"/>
-        <v>8700</v>
+        <f>(E12+F12)*$K$2</f>
+        <v>8265</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>18700</v>
+        <f>SUM(E12:G12)</f>
+        <v>17765</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>3366</v>
+        <f>H12*18%</f>
+        <v>3197.7</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="4"/>
-        <v>823.40000000000009</v>
+        <f>IF((H12-I12-5000)&gt;=25000,(H12-I12-5000)*25%-2660,IF((H12-I12-5000)&gt;=12000,(H12-I12-5000)*20%-1410,IF((H12-I12-5000)&gt;=3000,(H12-I12-5000)*10%-210,(H12-I12-5000)*3%-0)))</f>
+        <v>746.73</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="3"/>
-        <v>14510.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <f>H12-I12-J12</f>
+        <v>13820.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="4">
-        <v>4500</v>
+        <v>9600</v>
       </c>
       <c r="F13" s="4">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>5220</v>
+        <f>(E13+F13)*$K$2</f>
+        <v>10962</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="1"/>
-        <v>11220</v>
+        <f>SUM(E13:G13)</f>
+        <v>23562</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>2019.6</v>
+        <f>H13*18%</f>
+        <v>4241.16</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="4"/>
-        <v>210.03999999999996</v>
+        <f>IF((H13-I13-5000)&gt;=25000,(H13-I13-5000)*25%-2660,IF((H13-I13-5000)&gt;=12000,(H13-I13-5000)*20%-1410,IF((H13-I13-5000)&gt;=3000,(H13-I13-5000)*10%-210,(H13-I13-5000)*3%-0)))</f>
+        <v>1454.1680000000001</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="3"/>
-        <v>8990.36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+        <f>H13-I13-J13</f>
+        <v>17866.671999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <f>SUBTOTAL(9,K10:K13)</f>
+        <v>76098.972000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>11000</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="4">
         <v>4000</v>
       </c>
-      <c r="G14" s="4">
-        <f t="shared" si="0"/>
+      <c r="G15" s="4">
+        <f>(E15+F15)*$K$2</f>
         <v>13050</v>
       </c>
-      <c r="H14" s="4">
-        <f t="shared" si="1"/>
+      <c r="H15" s="4">
+        <f>SUM(E15:G15)</f>
         <v>28050</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
+      <c r="I15" s="4">
+        <f>H15*18%</f>
         <v>5049</v>
       </c>
-      <c r="J14" s="4">
-        <f t="shared" si="4"/>
+      <c r="J15" s="4">
+        <f>IF((H15-I15-5000)&gt;=25000,(H15-I15-5000)*25%-2660,IF((H15-I15-5000)&gt;=12000,(H15-I15-5000)*20%-1410,IF((H15-I15-5000)&gt;=3000,(H15-I15-5000)*10%-210,(H15-I15-5000)*3%-0)))</f>
         <v>2190.2000000000003</v>
       </c>
-      <c r="K14" s="4">
-        <f t="shared" si="3"/>
+      <c r="K15" s="4">
+        <f>H15-I15-J15</f>
         <v>20810.8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5000</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1800</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>5916</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="1"/>
-        <v>12716</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>2288.88</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="4"/>
-        <v>332.71199999999988</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="3"/>
-        <v>10094.407999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -2734,273 +2702,468 @@
         <v>2000</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="0"/>
+        <f>(E16+F16)*$K$2</f>
         <v>6090</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(E16:G16)</f>
         <v>13090</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="2"/>
+        <f>H16*18%</f>
         <v>2356.1999999999998</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="4"/>
+        <f>IF((H16-I16-5000)&gt;=25000,(H16-I16-5000)*25%-2660,IF((H16-I16-5000)&gt;=12000,(H16-I16-5000)*20%-1410,IF((H16-I16-5000)&gt;=3000,(H16-I16-5000)*10%-210,(H16-I16-5000)*3%-0)))</f>
         <v>363.38</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="3"/>
+        <f>H16-I16-J16</f>
         <v>10370.42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="F17" s="4">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="0"/>
-        <v>11745</v>
+        <f>(E17+F17)*$K$2</f>
+        <v>6351</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="1"/>
-        <v>25245</v>
+        <f>SUM(E17:G17)</f>
+        <v>13651</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>4544.0999999999995</v>
+        <f>H17*18%</f>
+        <v>2457.1799999999998</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="4"/>
-        <v>1730.1800000000003</v>
+        <f>IF((H17-I17-5000)&gt;=25000,(H17-I17-5000)*25%-2660,IF((H17-I17-5000)&gt;=12000,(H17-I17-5000)*20%-1410,IF((H17-I17-5000)&gt;=3000,(H17-I17-5000)*10%-210,(H17-I17-5000)*3%-0)))</f>
+        <v>409.38200000000006</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="3"/>
-        <v>18970.72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4">
-        <v>7500</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="0"/>
-        <v>8265</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="1"/>
-        <v>17765</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>3197.7</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="4"/>
-        <v>746.73</v>
-      </c>
+        <f>H17-I17-J17</f>
+        <v>10784.438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4">
-        <f t="shared" si="3"/>
-        <v>13820.57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <f>SUBTOTAL(9,K15:K17)</f>
+        <v>41965.658000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="4">
-        <v>9600</v>
+        <v>8500</v>
       </c>
       <c r="F19" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G19" s="4">
+        <f>(E19+F19)*$K$2</f>
+        <v>9570</v>
+      </c>
+      <c r="H19" s="4">
+        <f>SUM(E19:G19)</f>
+        <v>20570</v>
+      </c>
+      <c r="I19" s="4">
+        <f>H19*18%</f>
+        <v>3702.6</v>
+      </c>
+      <c r="J19" s="4">
+        <f>IF((H19-I19-5000)&gt;=25000,(H19-I19-5000)*25%-2660,IF((H19-I19-5000)&gt;=12000,(H19-I19-5000)*20%-1410,IF((H19-I19-5000)&gt;=3000,(H19-I19-5000)*10%-210,(H19-I19-5000)*3%-0)))</f>
+        <v>976.74000000000024</v>
+      </c>
+      <c r="K19" s="4">
+        <f>H19-I19-J19</f>
+        <v>15890.660000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4500</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="4">
+        <f>(E20+F20)*$K$2</f>
+        <v>5220</v>
+      </c>
+      <c r="H20" s="4">
+        <f>SUM(E20:G20)</f>
+        <v>11220</v>
+      </c>
+      <c r="I20" s="4">
+        <f>H20*18%</f>
+        <v>2019.6</v>
+      </c>
+      <c r="J20" s="4">
+        <f>IF((H20-I20-5000)&gt;=25000,(H20-I20-5000)*25%-2660,IF((H20-I20-5000)&gt;=12000,(H20-I20-5000)*20%-1410,IF((H20-I20-5000)&gt;=3000,(H20-I20-5000)*10%-210,(H20-I20-5000)*3%-0)))</f>
+        <v>210.03999999999996</v>
+      </c>
+      <c r="K20" s="4">
+        <f>H20-I20-J20</f>
+        <v>8990.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="4">
+        <v>13500</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G21" s="4">
+        <f>(E21+F21)*$K$2</f>
+        <v>15225</v>
+      </c>
+      <c r="H21" s="4">
+        <f>SUM(E21:G21)</f>
+        <v>32725</v>
+      </c>
+      <c r="I21" s="4">
+        <f>H21*18%</f>
+        <v>5890.5</v>
+      </c>
+      <c r="J21" s="4">
+        <f>IF((H21-I21-5000)&gt;=25000,(H21-I21-5000)*25%-2660,IF((H21-I21-5000)&gt;=12000,(H21-I21-5000)*20%-1410,IF((H21-I21-5000)&gt;=3000,(H21-I21-5000)*10%-210,(H21-I21-5000)*3%-0)))</f>
+        <v>2956.9000000000005</v>
+      </c>
+      <c r="K21" s="4">
+        <f>H21-I21-J21</f>
+        <v>23877.599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
+        <f>SUBTOTAL(9,K19:K21)</f>
+        <v>48758.62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4">
+        <v>15000</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G23" s="4">
+        <f>(E23+F23)*$K$2</f>
+        <v>16530</v>
+      </c>
+      <c r="H23" s="4">
+        <f>SUM(E23:G23)</f>
+        <v>35530</v>
+      </c>
+      <c r="I23" s="4">
+        <f>H23*18%</f>
+        <v>6395.4</v>
+      </c>
+      <c r="J23" s="4">
+        <f>IF((H23-I23-5000)&gt;=25000,(H23-I23-5000)*25%-2660,IF((H23-I23-5000)&gt;=12000,(H23-I23-5000)*20%-1410,IF((H23-I23-5000)&gt;=3000,(H23-I23-5000)*10%-210,(H23-I23-5000)*3%-0)))</f>
+        <v>3416.92</v>
+      </c>
+      <c r="K23" s="4">
+        <f>H23-I23-J23</f>
+        <v>25717.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6500</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="4">
+        <f>(E24+F24)*$K$2</f>
+        <v>7395</v>
+      </c>
+      <c r="H24" s="4">
+        <f>SUM(E24:G24)</f>
+        <v>15895</v>
+      </c>
+      <c r="I24" s="4">
+        <f>H24*18%</f>
+        <v>2861.1</v>
+      </c>
+      <c r="J24" s="4">
+        <f>IF((H24-I24-5000)&gt;=25000,(H24-I24-5000)*25%-2660,IF((H24-I24-5000)&gt;=12000,(H24-I24-5000)*20%-1410,IF((H24-I24-5000)&gt;=3000,(H24-I24-5000)*10%-210,(H24-I24-5000)*3%-0)))</f>
+        <v>593.39</v>
+      </c>
+      <c r="K24" s="4">
+        <f>H24-I24-J24</f>
+        <v>12440.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5500</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G25" s="4">
+        <f>(E25+F25)*$K$2</f>
+        <v>6525</v>
+      </c>
+      <c r="H25" s="4">
+        <f>SUM(E25:G25)</f>
+        <v>14025</v>
+      </c>
+      <c r="I25" s="4">
+        <f>H25*18%</f>
+        <v>2524.5</v>
+      </c>
+      <c r="J25" s="4">
+        <f>IF((H25-I25-5000)&gt;=25000,(H25-I25-5000)*25%-2660,IF((H25-I25-5000)&gt;=12000,(H25-I25-5000)*20%-1410,IF((H25-I25-5000)&gt;=3000,(H25-I25-5000)*10%-210,(H25-I25-5000)*3%-0)))</f>
+        <v>440.05000000000007</v>
+      </c>
+      <c r="K25" s="4">
+        <f>H25-I25-J25</f>
+        <v>11060.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F26" s="4">
         <v>3000</v>
       </c>
-      <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>10962</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="1"/>
-        <v>23562</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>4241.16</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="4"/>
-        <v>1454.1680000000001</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="3"/>
-        <v>17866.671999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="4">
-        <v>13500</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4000</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>15225</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="1"/>
-        <v>32725</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="2"/>
-        <v>5890.5</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="4"/>
-        <v>2956.9000000000005</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" si="3"/>
-        <v>23877.599999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="4">
-        <v>7200</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="G26" s="4">
+        <f>(E26+F26)*$K$2</f>
+        <v>10005</v>
+      </c>
+      <c r="H26" s="4">
+        <f>SUM(E26:G26)</f>
+        <v>21505</v>
+      </c>
+      <c r="I26" s="4">
+        <f>H26*18%</f>
+        <v>3870.8999999999996</v>
+      </c>
+      <c r="J26" s="4">
+        <f>IF((H26-I26-5000)&gt;=25000,(H26-I26-5000)*25%-2660,IF((H26-I26-5000)&gt;=12000,(H26-I26-5000)*20%-1410,IF((H26-I26-5000)&gt;=3000,(H26-I26-5000)*10%-210,(H26-I26-5000)*3%-0)))</f>
+        <v>1116.8199999999997</v>
+      </c>
+      <c r="K26" s="4">
+        <f>H26-I26-J26</f>
+        <v>16517.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F27" s="4">
         <v>1800</v>
       </c>
-      <c r="G21" s="4">
-        <f t="shared" si="0"/>
-        <v>7830</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="1"/>
-        <v>16830</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="2"/>
-        <v>3029.4</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="4"/>
-        <v>670.06000000000006</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="3"/>
-        <v>13130.54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="4">
-        <v>5500</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1800</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="0"/>
-        <v>6351</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="1"/>
-        <v>13651</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="2"/>
-        <v>2457.1799999999998</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="4"/>
-        <v>409.38200000000006</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="3"/>
-        <v>10784.438</v>
+      <c r="G27" s="4">
+        <f>(E27+F27)*$K$2</f>
+        <v>5916</v>
+      </c>
+      <c r="H27" s="4">
+        <f>SUM(E27:G27)</f>
+        <v>12716</v>
+      </c>
+      <c r="I27" s="4">
+        <f>H27*18%</f>
+        <v>2288.88</v>
+      </c>
+      <c r="J27" s="4">
+        <f>IF((H27-I27-5000)&gt;=25000,(H27-I27-5000)*25%-2660,IF((H27-I27-5000)&gt;=12000,(H27-I27-5000)*20%-1410,IF((H27-I27-5000)&gt;=3000,(H27-I27-5000)*10%-210,(H27-I27-5000)*3%-0)))</f>
+        <v>332.71199999999988</v>
+      </c>
+      <c r="K27" s="4">
+        <f>H27-I27-J27</f>
+        <v>10094.407999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4">
+        <f>SUBTOTAL(9,K23:K27)</f>
+        <v>75830.327999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4">
+        <f>SUBTOTAL(9,K4:K27)</f>
+        <v>311916.31799999991</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:K22">
+    <sortCondition ref="C4:C22"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/大学信息技术/项目3/实训3/工资表.xlsx
+++ b/大学信息技术/项目3/实训3/工资表.xlsx
@@ -426,14 +426,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,6 +450,936 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5月'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>实发工资</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5月'!$A$4:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5月'!$K$4:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33481.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35781.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76098.972000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41965.658000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48758.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75830.327999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B0D-45FC-AB29-60BFCBB3081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="1582799952"/>
+        <c:axId val="1582795792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1582799952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582795792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1582795792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582799952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>866774</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,19 +1691,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -2188,7 +3118,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -2204,19 +3134,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -2351,7 +3281,7 @@
     <row r="6" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="5"/>
@@ -2449,7 +3379,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="2"/>
@@ -2627,7 +3557,7 @@
     <row r="14" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="5"/>
@@ -2765,7 +3695,7 @@
     <row r="18" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="5"/>
@@ -2903,7 +3833,7 @@
     <row r="22" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="5"/>
@@ -3121,7 +4051,7 @@
     <row r="28" spans="1:11" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="5"/>
@@ -3139,7 +4069,7 @@
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="5"/>
@@ -3164,6 +4094,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3188,19 +4119,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>

--- a/大学信息技术/项目3/实训3/工资表.xlsx
+++ b/大学信息技术/项目3/实训3/工资表.xlsx
@@ -456,7 +456,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -467,6 +467,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:t>行政各部门</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:t>月实发工资汇总</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -481,7 +514,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -537,13 +570,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -670,7 +701,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -716,12 +747,35 @@
         <c:minorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -743,7 +797,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -763,7 +817,14 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="pct10">
+          <a:fgClr>
+            <a:schemeClr val="accent1"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -775,15 +836,38 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -794,7 +878,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000"/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -3118,7 +3202,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.15"/>

--- a/大学信息技术/项目3/实训3/工资表.xlsx
+++ b/大学信息技术/项目3/实训3/工资表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F7BFC6-F874-4E90-B2AA-1BC4274653C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="750" windowWidth="19155" windowHeight="11250" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="3" r:id="rId1"/>
@@ -23,12 +24,23 @@
     <definedName name="_xlnm.Extract" localSheetId="0">'4月'!$A$33</definedName>
     <definedName name="员工编号">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="83">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,13 +342,26 @@
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>厂办</t>
+  </si>
+  <si>
+    <t>列标签</t>
+  </si>
+  <si>
+    <t>平均值项:实发工资</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -398,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +459,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,7 +534,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -546,7 +579,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>实发工资</c:v>
+                  <c:v> 实发工资 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -599,7 +632,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1448,7 +1480,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1464,6 +1502,400 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lenovo" refreshedDate="45272.564129513892" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="19" xr:uid="{B40F1EF7-6401-4A9F-A407-6E63570F22DD}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:K22" sheet="6月"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="员工编号" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="姓名" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="部门" numFmtId="0">
+      <sharedItems count="6">
+        <s v="人事部"/>
+        <s v="研发部"/>
+        <s v="销售部"/>
+        <s v="厂办"/>
+        <s v="财务部"/>
+        <s v="生产部"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="职务" numFmtId="0">
+      <sharedItems count="2">
+        <s v="经理"/>
+        <s v="普通员工"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="等级工资" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4500" maxValue="20000"/>
+    </cacheField>
+    <cacheField name="聘任津贴" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1500" maxValue="5000"/>
+    </cacheField>
+    <cacheField name="绩效奖励" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5340" maxValue="22250"/>
+    </cacheField>
+    <cacheField name="应发合计" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11340" maxValue="47250"/>
+    </cacheField>
+    <cacheField name="三险一金" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2041.1999999999998" maxValue="8505"/>
+    </cacheField>
+    <cacheField name="应缴个税" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="219.87999999999994" maxValue="5776.25"/>
+    </cacheField>
+    <cacheField name="实发工资" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9078.92" maxValue="32968.75"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+  <r>
+    <s v="XZ009001"/>
+    <s v="严旭琪"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20000"/>
+    <n v="5000"/>
+    <n v="22250"/>
+    <n v="47250"/>
+    <n v="8505"/>
+    <n v="5776.25"/>
+    <n v="32968.75"/>
+  </r>
+  <r>
+    <s v="XZ009002"/>
+    <s v="肖龙"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="15000"/>
+    <n v="4000"/>
+    <n v="16910"/>
+    <n v="35910"/>
+    <n v="6463.8"/>
+    <n v="3479.2400000000007"/>
+    <n v="25966.959999999999"/>
+  </r>
+  <r>
+    <s v="XZ009003"/>
+    <s v="韩丽"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6500"/>
+    <n v="2000"/>
+    <n v="7565"/>
+    <n v="16065"/>
+    <n v="2891.7"/>
+    <n v="607.32999999999993"/>
+    <n v="12565.97"/>
+  </r>
+  <r>
+    <s v="XZ009004"/>
+    <s v="成华峰"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="8500"/>
+    <n v="2500"/>
+    <n v="9790"/>
+    <n v="20790"/>
+    <n v="3742.2"/>
+    <n v="999.56"/>
+    <n v="16048.24"/>
+  </r>
+  <r>
+    <s v="XZ009005"/>
+    <s v="刘雯娟"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6000"/>
+    <n v="2000"/>
+    <n v="7120"/>
+    <n v="15120"/>
+    <n v="2721.6"/>
+    <n v="529.84"/>
+    <n v="11868.56"/>
+  </r>
+  <r>
+    <s v="XZ009006"/>
+    <s v="付晓强"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="12500"/>
+    <n v="4000"/>
+    <n v="14685"/>
+    <n v="31185"/>
+    <n v="5613.3"/>
+    <n v="2704.34"/>
+    <n v="22867.360000000001"/>
+  </r>
+  <r>
+    <s v="XZ009007"/>
+    <s v="孙小平"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5500"/>
+    <n v="2000"/>
+    <n v="6675"/>
+    <n v="14175"/>
+    <n v="2551.5"/>
+    <n v="452.35"/>
+    <n v="11171.15"/>
+  </r>
+  <r>
+    <s v="XZ009008"/>
+    <s v="王亚萍"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8500"/>
+    <n v="3000"/>
+    <n v="10235"/>
+    <n v="21735"/>
+    <n v="3912.2999999999997"/>
+    <n v="1154.5400000000004"/>
+    <n v="16668.16"/>
+  </r>
+  <r>
+    <s v="XZ009009"/>
+    <s v="杨淑琴"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="8000"/>
+    <n v="2000"/>
+    <n v="8900"/>
+    <n v="18900"/>
+    <n v="3402"/>
+    <n v="839.8"/>
+    <n v="14658.2"/>
+  </r>
+  <r>
+    <s v="XZ009010"/>
+    <s v="王华荣"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4500"/>
+    <n v="1500"/>
+    <n v="5340"/>
+    <n v="11340"/>
+    <n v="2041.1999999999998"/>
+    <n v="219.87999999999994"/>
+    <n v="9078.92"/>
+  </r>
+  <r>
+    <s v="XZ009011"/>
+    <s v="姚小奇"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="11000"/>
+    <n v="4000"/>
+    <n v="13350"/>
+    <n v="28350"/>
+    <n v="5103"/>
+    <n v="2239.4"/>
+    <n v="21007.599999999999"/>
+  </r>
+  <r>
+    <s v="XZ009012"/>
+    <s v="杨海涛"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5000"/>
+    <n v="1800"/>
+    <n v="6052"/>
+    <n v="12852"/>
+    <n v="2313.36"/>
+    <n v="343.86399999999992"/>
+    <n v="10194.776"/>
+  </r>
+  <r>
+    <s v="XZ009013"/>
+    <s v="于伟平"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="5000"/>
+    <n v="2000"/>
+    <n v="6230"/>
+    <n v="13230"/>
+    <n v="2381.4"/>
+    <n v="374.86"/>
+    <n v="10473.74"/>
+  </r>
+  <r>
+    <s v="XZ009014"/>
+    <s v="李泉波"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="10500"/>
+    <n v="3000"/>
+    <n v="12015"/>
+    <n v="25515"/>
+    <n v="4592.7"/>
+    <n v="1774.46"/>
+    <n v="19147.84"/>
+  </r>
+  <r>
+    <s v="XZ009015"/>
+    <s v="李正荣"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7500"/>
+    <n v="2000"/>
+    <n v="8455"/>
+    <n v="17955"/>
+    <n v="3231.9"/>
+    <n v="762.31000000000006"/>
+    <n v="13960.79"/>
+  </r>
+  <r>
+    <s v="XZ009016"/>
+    <s v="吴海燕"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="9600"/>
+    <n v="3000"/>
+    <n v="11214"/>
+    <n v="23814"/>
+    <n v="4286.5199999999995"/>
+    <n v="1495.4960000000001"/>
+    <n v="18031.984"/>
+  </r>
+  <r>
+    <s v="XZ009017"/>
+    <s v="周莉莉"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="13500"/>
+    <n v="4000"/>
+    <n v="15575"/>
+    <n v="33075"/>
+    <n v="5953.5"/>
+    <n v="3014.3"/>
+    <n v="24107.200000000001"/>
+  </r>
+  <r>
+    <s v="XZ009018"/>
+    <s v="谢杰"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="7200"/>
+    <n v="1800"/>
+    <n v="8010"/>
+    <n v="17010"/>
+    <n v="3061.7999999999997"/>
+    <n v="684.82000000000016"/>
+    <n v="13263.380000000001"/>
+  </r>
+  <r>
+    <s v="XZ009019"/>
+    <s v="汤建"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="5500"/>
+    <n v="1800"/>
+    <n v="6497"/>
+    <n v="13797"/>
+    <n v="2483.46"/>
+    <n v="421.35400000000016"/>
+    <n v="10892.186000000002"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{606BFE00-6555-4770-A68A-4B4000EC1A50}" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B24:E31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="平均值项:实发工资" fld="10" subtotal="average" baseField="2" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleDark6" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1542,6 +1974,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1577,6 +2026,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1752,14 +2218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3182,7 +3648,7 @@
       <c r="A52" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A4:K22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K22">
     <sortCondition ref="C4:C22"/>
     <sortCondition ref="D4:D22"/>
     <sortCondition descending="1" ref="K4:K22"/>
@@ -3198,10 +3664,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -4169,7 +4635,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:K22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K22">
     <sortCondition ref="C4:C22"/>
   </sortState>
   <mergeCells count="1">
@@ -4183,19 +4649,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
@@ -5027,12 +5493,122 @@
         <v>10892.186000000002</v>
       </c>
     </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="14">
+        <v>19147.84</v>
+      </c>
+      <c r="D26" s="14">
+        <v>14658.2</v>
+      </c>
+      <c r="E26" s="14">
+        <v>16903.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="14">
+        <v>22867.360000000001</v>
+      </c>
+      <c r="D27" s="14">
+        <v>13263.380000000001</v>
+      </c>
+      <c r="E27" s="14">
+        <v>18065.370000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="14">
+        <v>32968.75</v>
+      </c>
+      <c r="D28" s="14">
+        <v>14620.444666666668</v>
+      </c>
+      <c r="E28" s="14">
+        <v>19207.521000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="14">
+        <v>21007.599999999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>10682.963</v>
+      </c>
+      <c r="E29" s="14">
+        <v>14124.508666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="14">
+        <v>24107.200000000001</v>
+      </c>
+      <c r="D30" s="14">
+        <v>12563.58</v>
+      </c>
+      <c r="E30" s="14">
+        <v>16411.453333333335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="14">
+        <v>25966.959999999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>12650.013999999999</v>
+      </c>
+      <c r="E31" s="14">
+        <v>15313.403200000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E32"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/大学信息技术/项目3/实训3/工资表.xlsx
+++ b/大学信息技术/项目3/实训3/工资表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F7BFC6-F874-4E90-B2AA-1BC4274653C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -359,7 +358,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -457,9 +456,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +464,9 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,6 +533,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -579,7 +579,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 实发工资 </c:v>
+                  <c:v>实发工资</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -632,6 +632,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -650,13 +651,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'5月'!$A$4:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'5月'!$C$6:$C$28</c:f>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>财务部 汇总</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>厂办 汇总</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>人事部 汇总</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>生产部 汇总</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>销售部 汇总</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>研发部 汇总</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1505,7 +1523,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lenovo" refreshedDate="45272.564129513892" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="19" xr:uid="{B40F1EF7-6401-4A9F-A407-6E63570F22DD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="lenovo" refreshedDate="45272.564129513892" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="19">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:K22" sheet="6月"/>
   </cacheSource>
@@ -1815,7 +1833,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{606BFE00-6555-4770-A68A-4B4000EC1A50}" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B24:E31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -1974,23 +1992,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2026,23 +2027,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2218,7 +2202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2241,19 +2225,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -3648,7 +3632,7 @@
       <c r="A52" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K22">
+  <sortState ref="A4:K22">
     <sortCondition ref="C4:C22"/>
     <sortCondition ref="D4:D22"/>
     <sortCondition descending="1" ref="K4:K22"/>
@@ -3664,11 +3648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -3684,19 +3668,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -4635,7 +4619,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K22">
+  <sortState ref="A4:K22">
     <sortCondition ref="C4:C22"/>
   </sortState>
   <mergeCells count="1">
@@ -4649,10 +4633,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -4669,19 +4653,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -5494,16 +5478,16 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C25" t="s">
@@ -5517,86 +5501,86 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>19147.84</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>14658.2</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>16903.02</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>22867.360000000001</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>13263.380000000001</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>18065.370000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>32968.75</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>14620.444666666668</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>19207.521000000001</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>21007.599999999999</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>10682.963</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>14124.508666666667</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>24107.200000000001</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>12563.58</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>16411.453333333335</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>25966.959999999999</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>12650.013999999999</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>15313.403200000001</v>
       </c>
     </row>
